--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2129131.138420681</v>
+        <v>2127243.556904278</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>556825.9429683439</v>
+        <v>203954.4455530033</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>182.9517011130388</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>267.3987120366969</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>26.78026256753516</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>195.4548394502083</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>142.1265188191253</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>66.88525354425654</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>64.3960290212204</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>235.4745188564438</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896929</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>15.59458547084364</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.56452900498735</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>122.4686819962965</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>5.562624396425207</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>127.4321567831323</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>218.4294206174714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.5885512005763</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>101.4950386131019</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>158.859398303358</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>26.9744467395492</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.56452900498783</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,10 +2767,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151919</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>78.97366804879941</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571489</v>
+        <v>55.21598883571505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523586</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>154.1248719054206</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789456</v>
+        <v>80.78193823789577</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1392.383865001493</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1018.918106740413</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>113.6371076753676</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164661</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>773.500346212138</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273829</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1138.689965955915</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2498.558261327377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2498.558261327377</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2498.558261327377</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2498.558261327377</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>2108.418929351565</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>932.2014054355411</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C8" t="n">
-        <v>932.2014054355411</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>932.2014054355411</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>546.4131528372968</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>135.4272480476893</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>121.5038439862802</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>121.5038439862802</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2147.134634540149</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672433</v>
+        <v>2147.134634540149</v>
       </c>
       <c r="X8" t="n">
-        <v>1322.340737411353</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="Y8" t="n">
-        <v>932.2014054355411</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>987.4051452743431</v>
       </c>
       <c r="M12" t="n">
-        <v>772.8730769161741</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.8250614170377</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>557.8888784891308</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>407.772239076795</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>259.8591454944019</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>112.9691979964915</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>112.9691979964915</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>112.9691979964915</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557903</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>954.814612315055</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170377</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8250614170377</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1442.339749591389</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N15" t="n">
-        <v>1786.860405229007</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>517.9294177607304</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>517.9294177607304</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>367.8127783483947</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617345002</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617345002</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.5778825909701</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,22 +5501,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>674.7185717878256</v>
       </c>
       <c r="X19" t="n">
-        <v>245.1301850426791</v>
+        <v>446.7290208898082</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.1301850426791</v>
+        <v>225.9364417462781</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>661.6060969157195</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.3055067228584</v>
+        <v>199.7373324836212</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3055067228584</v>
+        <v>199.7373324836212</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>199.7373324836212</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>199.7373324836212</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="W22" t="n">
-        <v>754.8946022306071</v>
+        <v>609.3753482118782</v>
       </c>
       <c r="X22" t="n">
-        <v>754.8946022306071</v>
+        <v>381.3857973138608</v>
       </c>
       <c r="Y22" t="n">
-        <v>534.102023087077</v>
+        <v>381.3857973138608</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>425.8564518307257</v>
+        <v>124.4640073588204</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>124.4640073588204</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>124.4640073588204</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>1164.055751909234</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W25" t="n">
-        <v>874.6385818722732</v>
+        <v>754.8946022306076</v>
       </c>
       <c r="X25" t="n">
-        <v>646.6490309742559</v>
+        <v>526.9050513325902</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.8564518307257</v>
+        <v>306.1124721890601</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>1204.259384505796</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143414</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.770281663976</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>773.5483822357312</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N30" t="n">
-        <v>2056.693778606511</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O30" t="n">
-        <v>2056.693778606511</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.874819421525</v>
+        <v>439.5324299542158</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749889</v>
+        <v>359.7610480867417</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440239</v>
+        <v>265.4052739557765</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>265.4052739557765</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>265.4052739557765</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1412.946441373716</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1214.0228184492</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.0228184492</v>
+        <v>902.6804289818915</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832553</v>
+        <v>730.4517433652446</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703939</v>
+        <v>565.4200295030848</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083196</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982974</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6953,19 +6953,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,25 +7017,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171745</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.482307609636</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.893885873787</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7181,19 +7181,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>883.9240649760945</v>
       </c>
       <c r="M39" t="n">
-        <v>334.288126757867</v>
+        <v>1204.259384505796</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143414</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,13 +7345,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7412,25 +7412,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,31 +7546,31 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649692</v>
@@ -7582,13 +7582,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,10 +7801,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8781,7 +8781,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>153.3771020185553</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>225.2198464918254</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,10 +10200,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>94.82465999342834</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>228.67282339359</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>23.9652806502727</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>192.358185587178</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>52.39982339880495</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>7.280234771565745</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.243428981361</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.92600940982931</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>8.387422795269799</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>119.45951590702</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>52.39982339880495</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338548</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.06989642127151</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437433</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>76.90922386459968</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>-2.984279490192421e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895008.7021595945</v>
+        <v>895008.7021595944</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="G2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="F2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="G2" t="n">
-        <v>508337.7776590214</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
@@ -26335,25 +26335,25 @@
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>528868.7785488521</v>
+        <v>528868.7785488506</v>
       </c>
       <c r="L2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="M2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="N2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="O2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="M2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="N2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="O2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="P2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117846</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086699</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284551</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758056</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758281</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758411</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758697</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905757998</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477242</v>
+        <v>18952.41620477233</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189632</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189635</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.946046789</v>
+        <v>-278208.9460467885</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677558</v>
+        <v>311758.933167756</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.933167756</v>
+        <v>311758.9331677559</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.378457167</v>
+        <v>-109694.8375831395</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.6580197291</v>
+        <v>415465.1988937567</v>
       </c>
       <c r="G6" t="n">
-        <v>415562.658019729</v>
+        <v>415465.198893757</v>
       </c>
       <c r="H6" t="n">
-        <v>415562.6580197291</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="I6" t="n">
-        <v>415562.6580197291</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="J6" t="n">
-        <v>239139.4388271359</v>
+        <v>239041.9797011639</v>
       </c>
       <c r="K6" t="n">
-        <v>369125.5485110112</v>
+        <v>369107.0547730756</v>
       </c>
       <c r="L6" t="n">
-        <v>402412.5568589959</v>
+        <v>402412.5568589958</v>
       </c>
       <c r="M6" t="n">
-        <v>277954.4484260255</v>
+        <v>277954.4484260254</v>
       </c>
       <c r="N6" t="n">
+        <v>412755.4636598628</v>
+      </c>
+      <c r="O6" t="n">
         <v>412755.4636598627</v>
       </c>
-      <c r="O6" t="n">
-        <v>412755.4636598628</v>
-      </c>
       <c r="P6" t="n">
-        <v>368592.8583570169</v>
+        <v>368592.8583570175</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,10 +26793,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.92863350108374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>182.3211906579688</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>81.8422566807161</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>198.2548428905491</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>159.2282021704746</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>109.097648689164</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684545</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>85.04606270060471</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>263.3562294489145</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>50.80735538553392</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31127,13 +31127,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>61.04368814949335</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,31 +31373,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,25 +31592,25 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,34 +31835,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>251.8532112133287</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3835035880686</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,34 +32072,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.4409936277001</v>
       </c>
       <c r="O15" t="n">
-        <v>409.4103115654726</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>212.6272478467031</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>337.8039389768529</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32783,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>328.5774119587765</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,34 +33020,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,19 +33257,19 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>156.2519421180771</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33278,13 +33278,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>90.02710286925503</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,10 +33494,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33506,22 +33506,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>183.8504064050094</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540871</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,7 +33731,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -33740,25 +33740,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>334.3548281824516</v>
       </c>
       <c r="O36" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565502</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,34 +33968,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>267.7425307447069</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,34 +34205,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>291.4295500091224</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34454,28 +34454,28 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>331.1859963277583</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.29709682323549</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>484.1391767369137</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>763.3841658482888</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.4416558879203</v>
       </c>
       <c r="O15" t="n">
-        <v>660.6763863977577</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>536.1982776746847</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>10.78085757411083</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>570.0899045004379</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>652.1484417867581</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>83.08581256980706</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>388.5379076416621</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>274.515464094862</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>507.421436232991</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>682.3554904426718</v>
       </c>
       <c r="O36" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.0284962682919</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>615.0005798371039</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>582.4520711600434</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
